--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish.Dubey\Documents\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="117">
   <si>
     <t>Role</t>
   </si>
@@ -292,12 +292,109 @@
   </si>
   <si>
     <t>TitleDescription</t>
+  </si>
+  <si>
+    <t>CourseAssessment</t>
+  </si>
+  <si>
+    <t>CourseAssessment_ZINPlR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CourseAssessment_FYzIUW</t>
+  </si>
+  <si>
+    <t>CourseAssessment_VyEVQL</t>
+  </si>
+  <si>
+    <t>CourseAssessment_WrAchS</t>
+  </si>
+  <si>
+    <t>CourseAssessment_MazzMd</t>
+  </si>
+  <si>
+    <t>CourseAssessment_hbpKpw</t>
+  </si>
+  <si>
+    <t>CourseAssessment_WJOohB</t>
+  </si>
+  <si>
+    <t>CourseAssessment_WquLGX</t>
+  </si>
+  <si>
+    <t>CourseAssessment_VNqAbC</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>PDF_ContentcMCqLZ</t>
+  </si>
+  <si>
+    <t>Mp4</t>
+  </si>
+  <si>
+    <t>Mp4_ContentQZaBPI</t>
+  </si>
+  <si>
+    <t>Epub</t>
+  </si>
+  <si>
+    <t>Epub_ContentTUyQqt</t>
+  </si>
+  <si>
+    <t>h5p</t>
+  </si>
+  <si>
+    <t>H5p_ContentkvYBkt</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>html_ContentSMzkIf</t>
+  </si>
+  <si>
+    <t>Mp4_ContentGTxobj</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>YT_ContentuWJgEl</t>
+  </si>
+  <si>
+    <t>Epub_ContentXaamJc</t>
+  </si>
+  <si>
+    <t>PDF_ContentuLdaVc</t>
+  </si>
+  <si>
+    <t>PDF_ContentwguwKA</t>
+  </si>
+  <si>
+    <t>PDF_ContentRUShws</t>
+  </si>
+  <si>
+    <t>CourseAssessment_BpJURo</t>
+  </si>
+  <si>
+    <t>CourseAssessment_TSapeA</t>
+  </si>
+  <si>
+    <t>ECMLResource</t>
+  </si>
+  <si>
+    <t>ECML_rARnlv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,10 +1002,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1868,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1876,9 +1973,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1898,6 +1995,259 @@
         <v>80</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish.Dubey\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diksha_selenium_new\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13721A6E-852E-4006-A648-B827B41F28E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75275A26-0073-4AA0-BCAD-D9F0C3F35C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DAA223E6-CB5D-4CA6-8B40-3130C88B8FCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DAA223E6-CB5D-4CA6-8B40-3130C88B8FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
   <si>
     <t>Role</t>
   </si>
@@ -292,6 +292,45 @@
   </si>
   <si>
     <t>TitleDescription</t>
+  </si>
+  <si>
+    <t>NewUser</t>
+  </si>
+  <si>
+    <t>newuser12345@yopmail.com</t>
+  </si>
+  <si>
+    <t>NewCustodian</t>
+  </si>
+  <si>
+    <t>newcustodian@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collections_BMWrOl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Collections_KvwUqG</t>
+  </si>
+  <si>
+    <t>Collections_kMAnhi</t>
+  </si>
+  <si>
+    <t>Collections_jgVfOb</t>
+  </si>
+  <si>
+    <t>Collections_wEzZqZ</t>
+  </si>
+  <si>
+    <t>creatorprod_uvae</t>
   </si>
 </sst>
 </file>
@@ -464,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -517,6 +556,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -539,7 +589,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,21 +600,17 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent 1 1" xfId="2" xr:uid="{9DC9CC7E-3E86-4099-966C-E16E4B2FB818}"/>
@@ -897,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45085148-5C97-4C1E-BE40-BBF209D55C88}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,223 +973,223 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
         <v>12</v>
       </c>
     </row>
@@ -1151,169 +1197,169 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6">
         <v>22</v>
       </c>
     </row>
@@ -1321,16 +1367,16 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6">
         <v>23</v>
       </c>
     </row>
@@ -1338,16 +1384,16 @@
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
         <v>24</v>
       </c>
     </row>
@@ -1355,16 +1401,16 @@
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6">
         <v>25</v>
       </c>
     </row>
@@ -1372,16 +1418,16 @@
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6">
         <v>26</v>
       </c>
     </row>
@@ -1389,16 +1435,16 @@
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6">
         <v>27</v>
       </c>
     </row>
@@ -1406,16 +1452,16 @@
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6">
         <v>28</v>
       </c>
     </row>
@@ -1423,33 +1469,33 @@
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6">
         <v>30</v>
       </c>
     </row>
@@ -1457,16 +1503,16 @@
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6">
         <v>31</v>
       </c>
     </row>
@@ -1474,16 +1520,16 @@
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6">
         <v>32</v>
       </c>
     </row>
@@ -1491,16 +1537,16 @@
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
         <v>33</v>
       </c>
     </row>
@@ -1508,16 +1554,16 @@
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6">
         <v>34</v>
       </c>
     </row>
@@ -1525,16 +1571,16 @@
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="12">
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6">
         <v>35</v>
       </c>
     </row>
@@ -1544,8 +1590,8 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
         <v>36</v>
       </c>
     </row>
@@ -1553,16 +1599,16 @@
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="12">
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6">
         <v>37</v>
       </c>
     </row>
@@ -1642,16 +1688,16 @@
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6">
         <v>38</v>
       </c>
     </row>
@@ -1659,10 +1705,10 @@
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="5"/>
@@ -1695,7 +1741,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -1704,7 +1750,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -1713,7 +1759,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -1722,7 +1768,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -1771,7 +1817,7 @@
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1782,6 +1828,33 @@
       </c>
       <c r="E61" s="5">
         <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1861,6 +1934,10 @@
     <hyperlink ref="C34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="B49" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="C49" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B62" r:id="rId76" xr:uid="{EE0BBC0C-296C-4E14-8F24-06ABF0A3756F}"/>
+    <hyperlink ref="C62" r:id="rId77" xr:uid="{7ADEF5ED-F066-4904-ADAD-3B71B9116952}"/>
+    <hyperlink ref="B63" r:id="rId78" xr:uid="{50A10AD5-E23C-499A-BA0D-9BAC61FDA74F}"/>
+    <hyperlink ref="C63" r:id="rId79" xr:uid="{AB39511A-717A-40C6-A9A0-1D069C8E21BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1868,34 +1945,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="278">
   <si>
     <t>Role</t>
   </si>
@@ -406,6 +406,471 @@
   </si>
   <si>
     <t>Resource_wtlCEH</t>
+  </si>
+  <si>
+    <t>PDF_ContentSsTetz</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Course_SkVoLD</t>
+  </si>
+  <si>
+    <t>do_3138112855454679041730</t>
+  </si>
+  <si>
+    <t>Course_EhMnpI</t>
+  </si>
+  <si>
+    <t>do_3138112912343941121732</t>
+  </si>
+  <si>
+    <t>Course_vKkRiX</t>
+  </si>
+  <si>
+    <t>do_31381129532051456011725</t>
+  </si>
+  <si>
+    <t>Course_oKtmsO</t>
+  </si>
+  <si>
+    <t>do_31381129933143244811728</t>
+  </si>
+  <si>
+    <t>Course_fjQQOz</t>
+  </si>
+  <si>
+    <t>do_3138113097462005761746</t>
+  </si>
+  <si>
+    <t>Course_CnjPLh</t>
+  </si>
+  <si>
+    <t>do_3138113112734105601747</t>
+  </si>
+  <si>
+    <t>Course_USEzbL</t>
+  </si>
+  <si>
+    <t>do_3138113122112798721750</t>
+  </si>
+  <si>
+    <t>Course_TOMBTp</t>
+  </si>
+  <si>
+    <t>do_3138113133584138241753</t>
+  </si>
+  <si>
+    <t>Course_EPVYyJ</t>
+  </si>
+  <si>
+    <t>do_31381131491240345611732</t>
+  </si>
+  <si>
+    <t>PDF_ContentZRIlqa</t>
+  </si>
+  <si>
+    <t>Course_kYYDrb</t>
+  </si>
+  <si>
+    <t>do_3138113531180728321771</t>
+  </si>
+  <si>
+    <t>PDF_ContenthMCDUM</t>
+  </si>
+  <si>
+    <t>Course_Yutmcs</t>
+  </si>
+  <si>
+    <t>do_3138114202962657281857</t>
+  </si>
+  <si>
+    <t>PDF_ContentmyKdGY</t>
+  </si>
+  <si>
+    <t>Course_MgkcVl</t>
+  </si>
+  <si>
+    <t>do_3138114270459248641861</t>
+  </si>
+  <si>
+    <t>PDF_ContentNEbuRi</t>
+  </si>
+  <si>
+    <t>Course_LXkrFs</t>
+  </si>
+  <si>
+    <t>do_3138114287756902401865</t>
+  </si>
+  <si>
+    <t>PDF_ContentfawQIV</t>
+  </si>
+  <si>
+    <t>Course_QgUwNe</t>
+  </si>
+  <si>
+    <t>do_3138114316394414081868</t>
+  </si>
+  <si>
+    <t>PDF_ContentXXXVuS</t>
+  </si>
+  <si>
+    <t>Course_CtXpaq</t>
+  </si>
+  <si>
+    <t>do_3138119025018142721904</t>
+  </si>
+  <si>
+    <t>Course_rijfwe</t>
+  </si>
+  <si>
+    <t>do_31381191125283635211850</t>
+  </si>
+  <si>
+    <t>Course_JTDQNP</t>
+  </si>
+  <si>
+    <t>do_3138119124572569601907</t>
+  </si>
+  <si>
+    <t>Course_Zcwlor</t>
+  </si>
+  <si>
+    <t>do_31381191432393523211853</t>
+  </si>
+  <si>
+    <t>Course_dpMnxM</t>
+  </si>
+  <si>
+    <t>do_31381191601673011211856</t>
+  </si>
+  <si>
+    <t>PDF_ContentNQRRqb</t>
+  </si>
+  <si>
+    <t>Course_Kgaxnf</t>
+  </si>
+  <si>
+    <t>do_31381193096665497611861</t>
+  </si>
+  <si>
+    <t>Course_lOQYlB</t>
+  </si>
+  <si>
+    <t>do_31381193277089382411864</t>
+  </si>
+  <si>
+    <t>Course_RAnKxL</t>
+  </si>
+  <si>
+    <t>do_3138119354601717761925</t>
+  </si>
+  <si>
+    <t>Course_jCkyAb</t>
+  </si>
+  <si>
+    <t>do_31381193852126822411874</t>
+  </si>
+  <si>
+    <t>Course_kjEFSy</t>
+  </si>
+  <si>
+    <t>do_31381194043800780811876</t>
+  </si>
+  <si>
+    <t>Course_oyeBJS</t>
+  </si>
+  <si>
+    <t>do_31381194284811878411878</t>
+  </si>
+  <si>
+    <t>Course_maWGjl</t>
+  </si>
+  <si>
+    <t>do_3138119446973808641940</t>
+  </si>
+  <si>
+    <t>Course_VnlDim</t>
+  </si>
+  <si>
+    <t>do_31381194632789196811881</t>
+  </si>
+  <si>
+    <t>Course_sqXVij</t>
+  </si>
+  <si>
+    <t>do_3138119848500346881990</t>
+  </si>
+  <si>
+    <t>Course_JEGzAo</t>
+  </si>
+  <si>
+    <t>do_31381200289348812811938</t>
+  </si>
+  <si>
+    <t>Course_kUTARD</t>
+  </si>
+  <si>
+    <t>do_31381201724200550411006</t>
+  </si>
+  <si>
+    <t>Course_MvfBXg</t>
+  </si>
+  <si>
+    <t>do_31381201837867827211007</t>
+  </si>
+  <si>
+    <t>Course_BGlaDY</t>
+  </si>
+  <si>
+    <t>do_31381206760449638411024</t>
+  </si>
+  <si>
+    <t>Course_WuIoyZ</t>
+  </si>
+  <si>
+    <t>do_31381207178627481611026</t>
+  </si>
+  <si>
+    <t>Course_rylxzr</t>
+  </si>
+  <si>
+    <t>do_31381207496326348811995</t>
+  </si>
+  <si>
+    <t>Course_myeSmI</t>
+  </si>
+  <si>
+    <t>do_31381210358717644811120</t>
+  </si>
+  <si>
+    <t>Course_kWuYPD</t>
+  </si>
+  <si>
+    <t>do_31381210653544448011124</t>
+  </si>
+  <si>
+    <t>Course_goBWMO</t>
+  </si>
+  <si>
+    <t>do_31381210826002432012023</t>
+  </si>
+  <si>
+    <t>Course_QYIHhT</t>
+  </si>
+  <si>
+    <t>do_31381211537793024012044</t>
+  </si>
+  <si>
+    <t>Course_zbjTGQ</t>
+  </si>
+  <si>
+    <t>do_31381211760354099211155</t>
+  </si>
+  <si>
+    <t>Course_iekGdz</t>
+  </si>
+  <si>
+    <t>do_31381213216681984012065</t>
+  </si>
+  <si>
+    <t>Course_hJxznE</t>
+  </si>
+  <si>
+    <t>do_31381213416836300812070</t>
+  </si>
+  <si>
+    <t>Course_lQposZ</t>
+  </si>
+  <si>
+    <t>do_31381213775936716812073</t>
+  </si>
+  <si>
+    <t>Course_KOfQeA</t>
+  </si>
+  <si>
+    <t>do_31381213960395161612076</t>
+  </si>
+  <si>
+    <t>Course_RTWgnH</t>
+  </si>
+  <si>
+    <t>do_31381214721344307211168</t>
+  </si>
+  <si>
+    <t>Course_IzZera</t>
+  </si>
+  <si>
+    <t>do_31381214940834201612077</t>
+  </si>
+  <si>
+    <t>Course_AaaCug</t>
+  </si>
+  <si>
+    <t>do_31381215060896972812080</t>
+  </si>
+  <si>
+    <t>Course_BcETIL</t>
+  </si>
+  <si>
+    <t>do_3138183013685985281759</t>
+  </si>
+  <si>
+    <t>Course_jnOOhp</t>
+  </si>
+  <si>
+    <t>do_3138183205671157761766</t>
+  </si>
+  <si>
+    <t>Course_PDjcgO</t>
+  </si>
+  <si>
+    <t>do_31381833339681996811241</t>
+  </si>
+  <si>
+    <t>Course_pKyZWK</t>
+  </si>
+  <si>
+    <t>do_31381833484846694411244</t>
+  </si>
+  <si>
+    <t>Course_aqAyWg</t>
+  </si>
+  <si>
+    <t>do_31381833817882624013927</t>
+  </si>
+  <si>
+    <t>Course_xiaZcZ</t>
+  </si>
+  <si>
+    <t>do_31381833924199219211299</t>
+  </si>
+  <si>
+    <t>Course_HhxLNa</t>
+  </si>
+  <si>
+    <t>do_31381834602370662411306</t>
+  </si>
+  <si>
+    <t>Course_SdkwnR</t>
+  </si>
+  <si>
+    <t>do_31381834880095846411307</t>
+  </si>
+  <si>
+    <t>Course_ImwDXa</t>
+  </si>
+  <si>
+    <t>do_31381835111477248011360</t>
+  </si>
+  <si>
+    <t>Course_bmUTmx</t>
+  </si>
+  <si>
+    <t>do_31381835244154880013954</t>
+  </si>
+  <si>
+    <t>Course_IkTxHl</t>
+  </si>
+  <si>
+    <t>do_31381835371109580811365</t>
+  </si>
+  <si>
+    <t>Course_mcBdOn</t>
+  </si>
+  <si>
+    <t>do_31381836423081164811373</t>
+  </si>
+  <si>
+    <t>CourseAssessment_HOZukB</t>
+  </si>
+  <si>
+    <t>CourseAssessment_DARBYq</t>
+  </si>
+  <si>
+    <t>Course_RrliQW</t>
+  </si>
+  <si>
+    <t>do_31381837802816307211380</t>
+  </si>
+  <si>
+    <t>CourseAssessment_kglxrA</t>
+  </si>
+  <si>
+    <t>Course_tBLSrK</t>
+  </si>
+  <si>
+    <t>do_31381838416320921611388</t>
+  </si>
+  <si>
+    <t>Course_YtklRU</t>
+  </si>
+  <si>
+    <t>do_31381838616162304011391</t>
+  </si>
+  <si>
+    <t>Course_htLBri</t>
+  </si>
+  <si>
+    <t>do_31381843276450201614024</t>
+  </si>
+  <si>
+    <t>Course_zlINxe</t>
+  </si>
+  <si>
+    <t>do_31381845398569779214034</t>
+  </si>
+  <si>
+    <t>Course_cvvZfp</t>
+  </si>
+  <si>
+    <t>do_31381846790023577614042</t>
+  </si>
+  <si>
+    <t>Course_WwHsei</t>
+  </si>
+  <si>
+    <t>do_31381847132508979211440</t>
+  </si>
+  <si>
+    <t>Course_reZymf</t>
+  </si>
+  <si>
+    <t>do_31381847410809241614047</t>
+  </si>
+  <si>
+    <t>Course_IVVAJF</t>
+  </si>
+  <si>
+    <t>do_31381847570894028814052</t>
+  </si>
+  <si>
+    <t>PDF_ContentQBaYGU</t>
+  </si>
+  <si>
+    <t>Course_SLkzFp</t>
+  </si>
+  <si>
+    <t>do_31381903434349772811467</t>
+  </si>
+  <si>
+    <t>PDF_ContentFCRpQh</t>
+  </si>
+  <si>
+    <t>Course_HaHRDW</t>
+  </si>
+  <si>
+    <t>do_31381904361127116814074</t>
+  </si>
+  <si>
+    <t>PDF_ContentigZsCT</t>
+  </si>
+  <si>
+    <t>Course_BtHqTu</t>
+  </si>
+  <si>
+    <t>do_31381904559566848011478</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +2448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2321,6 +2786,930 @@
         <v>87</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C113" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish.Dubey\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diksha_Selenium_Main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13721A6E-852E-4006-A648-B827B41F28E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AC993-F088-4322-98F4-5D5F5128E142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DAA223E6-CB5D-4CA6-8B40-3130C88B8FCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAA223E6-CB5D-4CA6-8B40-3130C88B8FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="355">
   <si>
     <t>Role</t>
   </si>
@@ -871,6 +871,237 @@
   </si>
   <si>
     <t>do_31381904559566848011478</t>
+  </si>
+  <si>
+    <t>Resource_GybQAy</t>
+  </si>
+  <si>
+    <t>Resource_BeacTP</t>
+  </si>
+  <si>
+    <t>TvLessonResource</t>
+  </si>
+  <si>
+    <t>TvLessonResource_tjShKt</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collections_MzKFcW</t>
+  </si>
+  <si>
+    <t>PDF_ContentkXfTOJ</t>
+  </si>
+  <si>
+    <t>Course_fFozVk</t>
+  </si>
+  <si>
+    <t>do_31382114556324249615048</t>
+  </si>
+  <si>
+    <t>Course_nWyrAb</t>
+  </si>
+  <si>
+    <t>do_31382114585607372815049</t>
+  </si>
+  <si>
+    <t>PDF_ContentTrHEFY</t>
+  </si>
+  <si>
+    <t>Course_HFwubC</t>
+  </si>
+  <si>
+    <t>do_31382114650852556812107</t>
+  </si>
+  <si>
+    <t>Course_gLzxyn</t>
+  </si>
+  <si>
+    <t>do_31382114680827084815051</t>
+  </si>
+  <si>
+    <t>PDF_ContentcgJfNt</t>
+  </si>
+  <si>
+    <t>Course_zOsklt</t>
+  </si>
+  <si>
+    <t>do_31382114750666342412109</t>
+  </si>
+  <si>
+    <t>CourseAssessment_deJZLN</t>
+  </si>
+  <si>
+    <t>Course_YyIRCA</t>
+  </si>
+  <si>
+    <t>do_31382114825977856015053</t>
+  </si>
+  <si>
+    <t>PDF_ContentSNDXoI</t>
+  </si>
+  <si>
+    <t>Course_VHkGUk</t>
+  </si>
+  <si>
+    <t>do_31382114889147187212110</t>
+  </si>
+  <si>
+    <t>PDF_ContentvjhDqr</t>
+  </si>
+  <si>
+    <t>Course_WKHTnM</t>
+  </si>
+  <si>
+    <t>do_31382114962434457615058</t>
+  </si>
+  <si>
+    <t>Course_USZQXq</t>
+  </si>
+  <si>
+    <t>do_31382114991737241615059</t>
+  </si>
+  <si>
+    <t>PDF_ContentOqdBnh</t>
+  </si>
+  <si>
+    <t>Course_mgcVlq</t>
+  </si>
+  <si>
+    <t>do_31382115053641728015061</t>
+  </si>
+  <si>
+    <t>CourseAssessment_kWeErL</t>
+  </si>
+  <si>
+    <t>LessonPlan</t>
+  </si>
+  <si>
+    <t>LessonPlan_VJapDQ</t>
+  </si>
+  <si>
+    <t>Epub_ContentjjlznS</t>
+  </si>
+  <si>
+    <t>H5p_ContentMFxivU</t>
+  </si>
+  <si>
+    <t>html_ContentaqxuQT</t>
+  </si>
+  <si>
+    <t>Mp4_ContentvZfugM</t>
+  </si>
+  <si>
+    <t>Mp4_ContentIcjkgo</t>
+  </si>
+  <si>
+    <t>PDF_ContentSZjNaB</t>
+  </si>
+  <si>
+    <t>Webm</t>
+  </si>
+  <si>
+    <t>Webm_ContentxgDWud</t>
+  </si>
+  <si>
+    <t>YT_ContentqPxdlM</t>
+  </si>
+  <si>
+    <t>PDF_ContentkXCxoy</t>
+  </si>
+  <si>
+    <t>Course_HKiBzq</t>
+  </si>
+  <si>
+    <t>do_31382116847915008015072</t>
+  </si>
+  <si>
+    <t>Course_kzZpjk</t>
+  </si>
+  <si>
+    <t>do_31382117067435212815073</t>
+  </si>
+  <si>
+    <t>Course_EsDyfQ</t>
+  </si>
+  <si>
+    <t>do_31382117563337113615074</t>
+  </si>
+  <si>
+    <t>Course_LfGgfM</t>
+  </si>
+  <si>
+    <t>do_31382117732094771215076</t>
+  </si>
+  <si>
+    <t>Collections_HyKezC</t>
+  </si>
+  <si>
+    <t>Course_xgzJPv</t>
+  </si>
+  <si>
+    <t>do_31382118882308915215085</t>
+  </si>
+  <si>
+    <t>Epub_ContentJPKJIq</t>
+  </si>
+  <si>
+    <t>H5p_ContenteuCroL</t>
+  </si>
+  <si>
+    <t>html_ContentcTMDFB</t>
+  </si>
+  <si>
+    <t>Mp4_ContentkczrqU</t>
+  </si>
+  <si>
+    <t>Mp4_ContentiQoIKa</t>
+  </si>
+  <si>
+    <t>PDF_ContentmbKuES</t>
+  </si>
+  <si>
+    <t>Webm_ContentFraXmo</t>
+  </si>
+  <si>
+    <t>Collections_OsFCcA</t>
+  </si>
+  <si>
+    <t>Course_rbwsCe</t>
+  </si>
+  <si>
+    <t>do_31382119858532352015098</t>
+  </si>
+  <si>
+    <t>CourseAssessment_nByFth</t>
+  </si>
+  <si>
+    <t>LessonPlan_DvUbOL</t>
+  </si>
+  <si>
+    <t>Resource_hpvCnS</t>
+  </si>
+  <si>
+    <t>TvLessonResource_lSmiLx</t>
+  </si>
+  <si>
+    <t>Ash3@yopmail.com</t>
+  </si>
+  <si>
+    <t>Ash12@yopmail.com</t>
+  </si>
+  <si>
+    <t>YT_ContentenWnoL</t>
+  </si>
+  <si>
+    <t>LessonPlan_nERXNR</t>
+  </si>
+  <si>
+    <t>Resource_xwsqmK</t>
+  </si>
+  <si>
+    <t>PDF_ContentZAXwPs</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1350,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1130,19 +1361,14 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1479,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45085148-5C97-4C1E-BE40-BBF209D55C88}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,223 +1733,223 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
         <v>12</v>
       </c>
     </row>
@@ -1731,169 +1957,169 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6">
         <v>22</v>
       </c>
     </row>
@@ -1901,16 +2127,16 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6">
         <v>23</v>
       </c>
     </row>
@@ -1918,16 +2144,16 @@
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
         <v>24</v>
       </c>
     </row>
@@ -1935,16 +2161,16 @@
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="6">
         <v>25</v>
       </c>
     </row>
@@ -1952,16 +2178,16 @@
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6">
         <v>26</v>
       </c>
     </row>
@@ -1969,16 +2195,16 @@
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6">
         <v>27</v>
       </c>
     </row>
@@ -1986,16 +2212,16 @@
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6">
         <v>28</v>
       </c>
     </row>
@@ -2003,33 +2229,33 @@
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2037,16 +2263,16 @@
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6">
         <v>31</v>
       </c>
     </row>
@@ -2054,16 +2280,16 @@
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6">
         <v>32</v>
       </c>
     </row>
@@ -2071,16 +2297,16 @@
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="D35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
         <v>33</v>
       </c>
     </row>
@@ -2088,16 +2314,16 @@
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="D36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6">
         <v>34</v>
       </c>
     </row>
@@ -2105,16 +2331,16 @@
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="12">
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6">
         <v>35</v>
       </c>
     </row>
@@ -2124,8 +2350,10 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6">
         <v>36</v>
       </c>
     </row>
@@ -2133,16 +2361,16 @@
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="12">
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6">
         <v>37</v>
       </c>
     </row>
@@ -2152,7 +2380,9 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2161,7 +2391,9 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2170,7 +2402,9 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2179,7 +2413,9 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2188,7 +2424,9 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2197,7 +2435,9 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2206,7 +2446,9 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2215,23 +2457,25 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6">
         <v>38</v>
       </c>
     </row>
@@ -2239,13 +2483,15 @@
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2254,7 +2500,9 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2263,7 +2511,9 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2272,43 +2522,53 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2317,16 +2577,24 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2335,7 +2603,9 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2344,20 +2614,22 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>14</v>
+      <c r="B61" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="5">
@@ -2436,11 +2708,13 @@
     <hyperlink ref="B23" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="B24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="B25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B61" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B34" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B49" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C49" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C34" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B49" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C49" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B58" r:id="rId75" xr:uid="{C68099DB-F3FC-4250-AA3D-CEAE52394F6B}"/>
+    <hyperlink ref="C58" r:id="rId76" xr:uid="{4207F919-7FF7-48E7-97A3-4B8759A02B8B}"/>
+    <hyperlink ref="B61" r:id="rId77" xr:uid="{0CFB46A2-6D50-480A-BA0B-02E56757F87B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2448,9 +2722,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2462,23 +2736,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2489,7 +2763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -2500,7 +2774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2511,7 +2785,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2522,7 +2796,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -2533,7 +2807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2544,7 +2818,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2555,7 +2829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2566,7 +2840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -2577,7 +2851,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2588,7 +2862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2599,7 +2873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -2610,7 +2884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2621,7 +2895,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2632,7 +2906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -2643,7 +2917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -2654,7 +2928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -2665,7 +2939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2676,7 +2950,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2687,7 +2961,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2698,7 +2972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2709,7 +2983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2720,7 +2994,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2731,7 +3005,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2742,7 +3016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -2753,7 +3027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -2764,7 +3038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2775,7 +3049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2786,7 +3060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -2797,7 +3071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -2808,7 +3082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -2819,7 +3093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -2830,7 +3104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -2841,7 +3115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -2852,7 +3126,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -2863,7 +3137,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -2874,7 +3148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -2885,7 +3159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2896,7 +3170,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -2907,7 +3181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -2918,7 +3192,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2929,7 +3203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -2940,7 +3214,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2951,7 +3225,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -2962,7 +3236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2973,7 +3247,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -2984,7 +3258,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -2995,7 +3269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -3006,7 +3280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3017,7 +3291,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -3028,7 +3302,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3039,7 +3313,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -3050,7 +3324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3061,7 +3335,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -3072,7 +3346,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -3083,7 +3357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -3094,7 +3368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -3105,7 +3379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -3116,7 +3390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -3127,7 +3401,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -3138,7 +3412,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -3149,7 +3423,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -3160,7 +3434,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3171,7 +3445,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -3182,7 +3456,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -3193,7 +3467,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -3204,7 +3478,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -3215,7 +3489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -3226,7 +3500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -3237,7 +3511,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -3248,7 +3522,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -3259,7 +3533,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -3270,7 +3544,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -3281,7 +3555,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -3292,7 +3566,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -3303,7 +3577,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3314,7 +3588,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -3325,7 +3599,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -3336,7 +3610,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>124</v>
       </c>
@@ -3347,7 +3621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -3358,7 +3632,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -3369,7 +3643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>124</v>
       </c>
@@ -3380,7 +3654,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -3391,7 +3665,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -3402,7 +3676,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -3413,7 +3687,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -3424,7 +3698,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -3435,7 +3709,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -3446,7 +3720,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -3457,7 +3731,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -3468,7 +3742,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -3479,7 +3753,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -3490,7 +3764,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -3501,7 +3775,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -3512,7 +3786,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -3523,7 +3797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -3534,7 +3808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -3545,7 +3819,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -3556,7 +3830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -3567,7 +3841,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>124</v>
       </c>
@@ -3578,7 +3852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -3589,7 +3863,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -3600,7 +3874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -3611,7 +3885,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -3622,7 +3896,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -3633,7 +3907,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -3644,7 +3918,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -3655,7 +3929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -3666,7 +3940,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -3677,7 +3951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -3688,7 +3962,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -3699,7 +3973,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -3708,6 +3982,611 @@
       </c>
       <c r="C113" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" t="s">
+        <v>294</v>
+      </c>
+      <c r="C124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>298</v>
+      </c>
+      <c r="C127" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" t="s">
+        <v>300</v>
+      </c>
+      <c r="C128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>96</v>
+      </c>
+      <c r="B130" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" t="s">
+        <v>306</v>
+      </c>
+      <c r="C132" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>309</v>
+      </c>
+      <c r="C134" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" t="s">
+        <v>311</v>
+      </c>
+      <c r="C135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>312</v>
+      </c>
+      <c r="B136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139" t="s">
+        <v>316</v>
+      </c>
+      <c r="C139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>98</v>
+      </c>
+      <c r="B140" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>98</v>
+      </c>
+      <c r="B141" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>320</v>
+      </c>
+      <c r="B143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>100</v>
+      </c>
+      <c r="B152" t="s">
+        <v>335</v>
+      </c>
+      <c r="C152" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>102</v>
+      </c>
+      <c r="B153" t="s">
+        <v>336</v>
+      </c>
+      <c r="C153" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>104</v>
+      </c>
+      <c r="B154" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>98</v>
+      </c>
+      <c r="B155" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B156" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" t="s">
+        <v>340</v>
+      </c>
+      <c r="C157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>85</v>
+      </c>
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>312</v>
+      </c>
+      <c r="B162" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>312</v>
+      </c>
+      <c r="B166" t="s">
+        <v>352</v>
+      </c>
+      <c r="C166" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B167" t="s">
+        <v>353</v>
+      </c>
+      <c r="C167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>96</v>
+      </c>
+      <c r="B168" t="s">
+        <v>354</v>
+      </c>
+      <c r="C168" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="337">
   <si>
     <t>Role</t>
   </si>
@@ -871,6 +871,183 @@
   </si>
   <si>
     <t>do_31381904559566848011478</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>eTextbook_dXBrDi</t>
+  </si>
+  <si>
+    <t>eTextbook_YaANSw</t>
+  </si>
+  <si>
+    <t>eTextbook_HvcZid</t>
+  </si>
+  <si>
+    <t>eTextbook_TgOjIk</t>
+  </si>
+  <si>
+    <t>eTextbook_sREIiZ</t>
+  </si>
+  <si>
+    <t>eTextbook_pVXCSy</t>
+  </si>
+  <si>
+    <t>eTextbook_tETGfr</t>
+  </si>
+  <si>
+    <t>eTextbook_tkcsTJ</t>
+  </si>
+  <si>
+    <t>eTextbook_wrcgze</t>
+  </si>
+  <si>
+    <t>eTextbook_SoRdaP</t>
+  </si>
+  <si>
+    <t>eTextbook_VaAPwV</t>
+  </si>
+  <si>
+    <t>eTextbook_BSDgqz</t>
+  </si>
+  <si>
+    <t>eTextbook_BVbhtY</t>
+  </si>
+  <si>
+    <t>eTextbook_zqJgKF</t>
+  </si>
+  <si>
+    <t>eTextbook_FaNvMS</t>
+  </si>
+  <si>
+    <t>eTextbook_HQIccK</t>
+  </si>
+  <si>
+    <t>eTextbook_EkbXLp</t>
+  </si>
+  <si>
+    <t>eTextbook_wGYofZ</t>
+  </si>
+  <si>
+    <t>eTextbook_GBLrXf</t>
+  </si>
+  <si>
+    <t>eTextbook_Fzzypa</t>
+  </si>
+  <si>
+    <t>eTextbook_DebgBW</t>
+  </si>
+  <si>
+    <t>eTextbook_BCOIVv</t>
+  </si>
+  <si>
+    <t>eTextbook_lUEDJk</t>
+  </si>
+  <si>
+    <t>eTextbook_bsGGZD</t>
+  </si>
+  <si>
+    <t>eTextbook_aYTNMB</t>
+  </si>
+  <si>
+    <t>eTextbook_vlgkkj</t>
+  </si>
+  <si>
+    <t>eTextbook_UgrKIC</t>
+  </si>
+  <si>
+    <t>eTextbook_dUFmPu</t>
+  </si>
+  <si>
+    <t>eTextbook_rbjixM</t>
+  </si>
+  <si>
+    <t>eTextbook_NMroIu</t>
+  </si>
+  <si>
+    <t>eTextbook_ZgJzxP</t>
+  </si>
+  <si>
+    <t>eTextbook_TxWsFV</t>
+  </si>
+  <si>
+    <t>eTextbook_pSAXTT</t>
+  </si>
+  <si>
+    <t>eTextbook_LkHtxx</t>
+  </si>
+  <si>
+    <t>eTextbook_rPKtfY</t>
+  </si>
+  <si>
+    <t>eTextbook_xwysAQ</t>
+  </si>
+  <si>
+    <t>eTextbook_AfdPRT</t>
+  </si>
+  <si>
+    <t>Collections_zJRvfK</t>
+  </si>
+  <si>
+    <t>eTextbook_eQPuwA</t>
+  </si>
+  <si>
+    <t>eTextbook_DVXySZ</t>
+  </si>
+  <si>
+    <t>eTextbook_GlsCwa</t>
+  </si>
+  <si>
+    <t>eTextbook_GPCWeS</t>
+  </si>
+  <si>
+    <t>eTextbook_kNqVbo</t>
+  </si>
+  <si>
+    <t>eTextbook_HCmFpb</t>
+  </si>
+  <si>
+    <t>eTextbook_PbkLAX</t>
+  </si>
+  <si>
+    <t>Collections_vabjkq</t>
+  </si>
+  <si>
+    <t>Collections_YJxpxC</t>
+  </si>
+  <si>
+    <t>eTextbook_qjSGtS</t>
+  </si>
+  <si>
+    <t>eTextbook_sOGISy</t>
+  </si>
+  <si>
+    <t>eTextbook_ZuMqIv</t>
+  </si>
+  <si>
+    <t>eTextbook_wqhdUW</t>
+  </si>
+  <si>
+    <t>eTextbook_iHvXgG</t>
+  </si>
+  <si>
+    <t>eTextbook_LEqmag</t>
+  </si>
+  <si>
+    <t>Collections_XrMDSS</t>
+  </si>
+  <si>
+    <t>eTextbook_AauORr</t>
+  </si>
+  <si>
+    <t>eTextbook_HBmASZ</t>
+  </si>
+  <si>
+    <t>eTextbook_DGGflg</t>
+  </si>
+  <si>
+    <t>eTextbook_fMNXSe</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3710,6 +3887,644 @@
         <v>277</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" t="s">
+        <v>279</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" t="s">
+        <v>280</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>278</v>
+      </c>
+      <c r="B121" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" t="s">
+        <v>309</v>
+      </c>
+      <c r="C144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>85</v>
+      </c>
+      <c r="B147" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>85</v>
+      </c>
+      <c r="B148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" t="s">
+        <v>321</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" t="s">
+        <v>322</v>
+      </c>
+      <c r="C157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>85</v>
+      </c>
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>85</v>
+      </c>
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>278</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>278</v>
+      </c>
+      <c r="B169" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>278</v>
+      </c>
+      <c r="B170" t="s">
+        <v>335</v>
+      </c>
+      <c r="C170" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="515">
   <si>
     <t>Role</t>
   </si>
@@ -1048,6 +1048,540 @@
   </si>
   <si>
     <t>eTextbook_fMNXSe</t>
+  </si>
+  <si>
+    <t>eTextbook_DnRsHO</t>
+  </si>
+  <si>
+    <t>eTextbook_vogXrn</t>
+  </si>
+  <si>
+    <t>PDF_ContenteNzrqv</t>
+  </si>
+  <si>
+    <t>Epub_ContentCGmxds</t>
+  </si>
+  <si>
+    <t>H5p_ContentDoQkgW</t>
+  </si>
+  <si>
+    <t>html_ContentnyjUoh</t>
+  </si>
+  <si>
+    <t>Mp4_ContentBZUKWD</t>
+  </si>
+  <si>
+    <t>Webm</t>
+  </si>
+  <si>
+    <t>Webm_ContentwRjtZG</t>
+  </si>
+  <si>
+    <t>eTextbook_EpblrQ</t>
+  </si>
+  <si>
+    <t>QuestionSet</t>
+  </si>
+  <si>
+    <t>QuestionSet_SqRXVN</t>
+  </si>
+  <si>
+    <t>do_3138232677826314241187</t>
+  </si>
+  <si>
+    <t>QuestionSet_rnEUuw</t>
+  </si>
+  <si>
+    <t>do_3138232728497520641190</t>
+  </si>
+  <si>
+    <t>QuestionSet_yDvfjT</t>
+  </si>
+  <si>
+    <t>do_3138232770847621121231</t>
+  </si>
+  <si>
+    <t>QuestionSet_oLvMpT</t>
+  </si>
+  <si>
+    <t>do_3138232789404303361240</t>
+  </si>
+  <si>
+    <t>QuestionSet_dMckmi</t>
+  </si>
+  <si>
+    <t>do_3138233086208245761199</t>
+  </si>
+  <si>
+    <t>QuestionSet_zKuwiX</t>
+  </si>
+  <si>
+    <t>do_3138233097777643521202</t>
+  </si>
+  <si>
+    <t>Epub_ContentwWFRMG</t>
+  </si>
+  <si>
+    <t>H5p_ContentWPECtb</t>
+  </si>
+  <si>
+    <t>html_ContentsbEWFU</t>
+  </si>
+  <si>
+    <t>Mp4_ContentHueQPY</t>
+  </si>
+  <si>
+    <t>Mp4_ContentSqfdKV</t>
+  </si>
+  <si>
+    <t>PDF_ContentWrWTcs</t>
+  </si>
+  <si>
+    <t>Webm_ContentJaxAzg</t>
+  </si>
+  <si>
+    <t>YT_ContenttRSZif</t>
+  </si>
+  <si>
+    <t>Epub_ContentoSlAuc</t>
+  </si>
+  <si>
+    <t>Epub_ContentukTsib</t>
+  </si>
+  <si>
+    <t>H5p_ContentiEtloF</t>
+  </si>
+  <si>
+    <t>html_ContentpHuSjA</t>
+  </si>
+  <si>
+    <t>Mp4_ContentRUYHcz</t>
+  </si>
+  <si>
+    <t>Mp4_ContentCatyMk</t>
+  </si>
+  <si>
+    <t>PDF_ContentrhKJjw</t>
+  </si>
+  <si>
+    <t>Webm_ContentpffOqx</t>
+  </si>
+  <si>
+    <t>YT_ContentwNwEpV</t>
+  </si>
+  <si>
+    <t>eTextbook_ziQSGv</t>
+  </si>
+  <si>
+    <t>eTextbook_HPuAer</t>
+  </si>
+  <si>
+    <t>eTextbook_koBGkF</t>
+  </si>
+  <si>
+    <t>eTextbook_uOtprG</t>
+  </si>
+  <si>
+    <t>eTextbook_ZbVybU</t>
+  </si>
+  <si>
+    <t>eTextbook_txzIIE</t>
+  </si>
+  <si>
+    <t>eTextbook_kUcCHB</t>
+  </si>
+  <si>
+    <t>eTextbook_dKskjr</t>
+  </si>
+  <si>
+    <t>Course_WhIiEA</t>
+  </si>
+  <si>
+    <t>do_31382403771820441613686</t>
+  </si>
+  <si>
+    <t>Course_HbZllD</t>
+  </si>
+  <si>
+    <t>do_31382404017001267213690</t>
+  </si>
+  <si>
+    <t>Course_XBrAPP</t>
+  </si>
+  <si>
+    <t>do_31382404338227609613694</t>
+  </si>
+  <si>
+    <t>Course_IDlbwo</t>
+  </si>
+  <si>
+    <t>do_31382404949916057617680</t>
+  </si>
+  <si>
+    <t>Course_HwkLMW</t>
+  </si>
+  <si>
+    <t>do_31382405076980531217681</t>
+  </si>
+  <si>
+    <t>Course_AfPXDZ</t>
+  </si>
+  <si>
+    <t>do_31382411800467865617712</t>
+  </si>
+  <si>
+    <t>Course_BFXijV</t>
+  </si>
+  <si>
+    <t>do_31382413396048281617732</t>
+  </si>
+  <si>
+    <t>Course_qsncSE</t>
+  </si>
+  <si>
+    <t>do_31382414018818867213758</t>
+  </si>
+  <si>
+    <t>Course_hrbqUr</t>
+  </si>
+  <si>
+    <t>do_31382414438219776013764</t>
+  </si>
+  <si>
+    <t>Course_zXaybG</t>
+  </si>
+  <si>
+    <t>do_31382414626063974413769</t>
+  </si>
+  <si>
+    <t>Course_npCqgb</t>
+  </si>
+  <si>
+    <t>do_31382414708357529617745</t>
+  </si>
+  <si>
+    <t>Course_MUQmjy</t>
+  </si>
+  <si>
+    <t>do_31382414895797043213771</t>
+  </si>
+  <si>
+    <t>Course_YXsoWr</t>
+  </si>
+  <si>
+    <t>do_31382415033421824013773</t>
+  </si>
+  <si>
+    <t>Course_swbddW</t>
+  </si>
+  <si>
+    <t>do_31382415319552000013781</t>
+  </si>
+  <si>
+    <t>Course_vYKRFq</t>
+  </si>
+  <si>
+    <t>do_31382415805447372813787</t>
+  </si>
+  <si>
+    <t>Course_ITyzeE</t>
+  </si>
+  <si>
+    <t>do_31382416196526080013790</t>
+  </si>
+  <si>
+    <t>Course_AzvasC</t>
+  </si>
+  <si>
+    <t>do_31382416339442892813791</t>
+  </si>
+  <si>
+    <t>Course_TMbFeu</t>
+  </si>
+  <si>
+    <t>do_31382416767596134417773</t>
+  </si>
+  <si>
+    <t>Course_orndQp</t>
+  </si>
+  <si>
+    <t>do_31382417103616409617776</t>
+  </si>
+  <si>
+    <t>Course_AinSuE</t>
+  </si>
+  <si>
+    <t>do_31382609842803507218004</t>
+  </si>
+  <si>
+    <t>Course_WRKDVv</t>
+  </si>
+  <si>
+    <t>do_31382609995898060818005</t>
+  </si>
+  <si>
+    <t>Course_bcCEyj</t>
+  </si>
+  <si>
+    <t>do_31382610312033075218009</t>
+  </si>
+  <si>
+    <t>Course_vWwGKq</t>
+  </si>
+  <si>
+    <t>do_31382610433759641618013</t>
+  </si>
+  <si>
+    <t>Course_fplbCq</t>
+  </si>
+  <si>
+    <t>do_31382610570060595218016</t>
+  </si>
+  <si>
+    <t>Course_HqthUH</t>
+  </si>
+  <si>
+    <t>do_31382610700704153618020</t>
+  </si>
+  <si>
+    <t>Course_KDvUPl</t>
+  </si>
+  <si>
+    <t>do_31382610885514854414011</t>
+  </si>
+  <si>
+    <t>Course_Putrog</t>
+  </si>
+  <si>
+    <t>do_31382611042775859218021</t>
+  </si>
+  <si>
+    <t>Course_HhgPBM</t>
+  </si>
+  <si>
+    <t>do_31382611307610931214021</t>
+  </si>
+  <si>
+    <t>Course_ComyEv</t>
+  </si>
+  <si>
+    <t>do_31382611483900313614022</t>
+  </si>
+  <si>
+    <t>Course_szieFf</t>
+  </si>
+  <si>
+    <t>do_31382611605933260818072</t>
+  </si>
+  <si>
+    <t>Course_jTqTgz</t>
+  </si>
+  <si>
+    <t>do_31382611806913331214031</t>
+  </si>
+  <si>
+    <t>Course_yJapMt</t>
+  </si>
+  <si>
+    <t>do_31382611992113152014036</t>
+  </si>
+  <si>
+    <t>Course_TImaCZ</t>
+  </si>
+  <si>
+    <t>do_31382612337030758414047</t>
+  </si>
+  <si>
+    <t>Course_SWytPu</t>
+  </si>
+  <si>
+    <t>do_31382616227869491218196</t>
+  </si>
+  <si>
+    <t>Course_XvBYnr</t>
+  </si>
+  <si>
+    <t>do_31382616359362560018203</t>
+  </si>
+  <si>
+    <t>Course_ocSSLi</t>
+  </si>
+  <si>
+    <t>do_31382617655217356817</t>
+  </si>
+  <si>
+    <t>Course_TVmQxV</t>
+  </si>
+  <si>
+    <t>do_31382617799423590412</t>
+  </si>
+  <si>
+    <t>Course_IKIOSS</t>
+  </si>
+  <si>
+    <t>do_313826180269113344113</t>
+  </si>
+  <si>
+    <t>Course_uVCDyJ</t>
+  </si>
+  <si>
+    <t>do_31382618225677926416</t>
+  </si>
+  <si>
+    <t>Course_wsxHkM</t>
+  </si>
+  <si>
+    <t>do_313826193344552960112</t>
+  </si>
+  <si>
+    <t>Course_jvaOJO</t>
+  </si>
+  <si>
+    <t>do_313826196345831424125</t>
+  </si>
+  <si>
+    <t>Course_vciLLq</t>
+  </si>
+  <si>
+    <t>do_313826196996513792115</t>
+  </si>
+  <si>
+    <t>Course_ALgSek</t>
+  </si>
+  <si>
+    <t>do_313826232304541696152</t>
+  </si>
+  <si>
+    <t>Course_TzIznc</t>
+  </si>
+  <si>
+    <t>do_313826235478441984161</t>
+  </si>
+  <si>
+    <t>CourseAssessment_eWFFxO</t>
+  </si>
+  <si>
+    <t>CourseAssessment_AvEMno</t>
+  </si>
+  <si>
+    <t>CourseAssessment_xwQvRM</t>
+  </si>
+  <si>
+    <t>CourseAssessment_SkaYNO</t>
+  </si>
+  <si>
+    <t>CourseAssessment_OsNyCX</t>
+  </si>
+  <si>
+    <t>CourseAssessment_PrCQiz</t>
+  </si>
+  <si>
+    <t>CourseAssessment_EstNJX</t>
+  </si>
+  <si>
+    <t>CourseAssessment_TxpezX</t>
+  </si>
+  <si>
+    <t>Course_iSDHyU</t>
+  </si>
+  <si>
+    <t>do_3138262540317327361110</t>
+  </si>
+  <si>
+    <t>Course_KvuRzq</t>
+  </si>
+  <si>
+    <t>do_3138262848860979201141</t>
+  </si>
+  <si>
+    <t>Course_DzdRqb</t>
+  </si>
+  <si>
+    <t>do_3138262863049687041144</t>
+  </si>
+  <si>
+    <t>Course_GYnxTu</t>
+  </si>
+  <si>
+    <t>do_3138262889415966721148</t>
+  </si>
+  <si>
+    <t>Course_EsLXWu</t>
+  </si>
+  <si>
+    <t>do_3138263470830059521156</t>
+  </si>
+  <si>
+    <t>Course_MyLudX</t>
+  </si>
+  <si>
+    <t>do_3138263494030704641158</t>
+  </si>
+  <si>
+    <t>Course_xVDYDY</t>
+  </si>
+  <si>
+    <t>do_3138263521332592641163</t>
+  </si>
+  <si>
+    <t>Course_vEGJEM</t>
+  </si>
+  <si>
+    <t>do_3138263537934254081318</t>
+  </si>
+  <si>
+    <t>Course_yOlMTg</t>
+  </si>
+  <si>
+    <t>do_3138263567305195521169</t>
+  </si>
+  <si>
+    <t>Course_ZParJH</t>
+  </si>
+  <si>
+    <t>do_3138263593158656001172</t>
+  </si>
+  <si>
+    <t>Course_jCBOuB</t>
+  </si>
+  <si>
+    <t>do_3138263615327846401175</t>
+  </si>
+  <si>
+    <t>Course_rbheik</t>
+  </si>
+  <si>
+    <t>do_3138263630905180161321</t>
+  </si>
+  <si>
+    <t>Course_NwKyYm</t>
+  </si>
+  <si>
+    <t>do_3138263642272808961180</t>
+  </si>
+  <si>
+    <t>Course_TqumHc</t>
+  </si>
+  <si>
+    <t>do_3138263666216140801183</t>
+  </si>
+  <si>
+    <t>Course_ElrTfk</t>
+  </si>
+  <si>
+    <t>do_3138263714505359361186</t>
+  </si>
+  <si>
+    <t>Course_HbHVkt</t>
+  </si>
+  <si>
+    <t>do_3138263731629096961322</t>
+  </si>
+  <si>
+    <t>Course_lcrSwq</t>
+  </si>
+  <si>
+    <t>do_3138267876521328641199</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +3159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -4525,6 +5059,1205 @@
         <v>87</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>278</v>
+      </c>
+      <c r="B172" t="s">
+        <v>337</v>
+      </c>
+      <c r="C172" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>278</v>
+      </c>
+      <c r="B173" t="s">
+        <v>338</v>
+      </c>
+      <c r="C173" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>96</v>
+      </c>
+      <c r="B174" t="s">
+        <v>339</v>
+      </c>
+      <c r="C174" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>100</v>
+      </c>
+      <c r="B175" t="s">
+        <v>340</v>
+      </c>
+      <c r="C175" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>102</v>
+      </c>
+      <c r="B176" t="s">
+        <v>341</v>
+      </c>
+      <c r="C176" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>104</v>
+      </c>
+      <c r="B177" t="s">
+        <v>342</v>
+      </c>
+      <c r="C177" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>98</v>
+      </c>
+      <c r="B178" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>344</v>
+      </c>
+      <c r="B179" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" t="s">
+        <v>346</v>
+      </c>
+      <c r="C180" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>347</v>
+      </c>
+      <c r="B183" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>347</v>
+      </c>
+      <c r="B186" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>100</v>
+      </c>
+      <c r="B187" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>102</v>
+      </c>
+      <c r="B188" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>104</v>
+      </c>
+      <c r="B189" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>363</v>
+      </c>
+      <c r="C190" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>364</v>
+      </c>
+      <c r="C191" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>96</v>
+      </c>
+      <c r="B192" t="s">
+        <v>365</v>
+      </c>
+      <c r="C192" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" t="s">
+        <v>366</v>
+      </c>
+      <c r="C193" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>107</v>
+      </c>
+      <c r="B194" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>368</v>
+      </c>
+      <c r="C195" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+      <c r="C196" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>102</v>
+      </c>
+      <c r="B197" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198" t="s">
+        <v>371</v>
+      </c>
+      <c r="C198" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>98</v>
+      </c>
+      <c r="B199" t="s">
+        <v>372</v>
+      </c>
+      <c r="C199" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>98</v>
+      </c>
+      <c r="B200" t="s">
+        <v>373</v>
+      </c>
+      <c r="C200" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>96</v>
+      </c>
+      <c r="B201" t="s">
+        <v>374</v>
+      </c>
+      <c r="C201" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>344</v>
+      </c>
+      <c r="B202" t="s">
+        <v>375</v>
+      </c>
+      <c r="C202" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>107</v>
+      </c>
+      <c r="B203" t="s">
+        <v>376</v>
+      </c>
+      <c r="C203" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>278</v>
+      </c>
+      <c r="B204" t="s">
+        <v>377</v>
+      </c>
+      <c r="C204" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>278</v>
+      </c>
+      <c r="B205" t="s">
+        <v>378</v>
+      </c>
+      <c r="C205" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>278</v>
+      </c>
+      <c r="B206" t="s">
+        <v>379</v>
+      </c>
+      <c r="C206" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>278</v>
+      </c>
+      <c r="B207" t="s">
+        <v>380</v>
+      </c>
+      <c r="C207" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>278</v>
+      </c>
+      <c r="B208" t="s">
+        <v>381</v>
+      </c>
+      <c r="C208" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>278</v>
+      </c>
+      <c r="B209" t="s">
+        <v>382</v>
+      </c>
+      <c r="C209" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>278</v>
+      </c>
+      <c r="B210" t="s">
+        <v>383</v>
+      </c>
+      <c r="C210" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>278</v>
+      </c>
+      <c r="B211" t="s">
+        <v>384</v>
+      </c>
+      <c r="C211" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>124</v>
+      </c>
+      <c r="B212" t="s">
+        <v>385</v>
+      </c>
+      <c r="C212" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>124</v>
+      </c>
+      <c r="B213" t="s">
+        <v>387</v>
+      </c>
+      <c r="C213" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>124</v>
+      </c>
+      <c r="B214" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>124</v>
+      </c>
+      <c r="B215" t="s">
+        <v>391</v>
+      </c>
+      <c r="C215" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>124</v>
+      </c>
+      <c r="B216" t="s">
+        <v>393</v>
+      </c>
+      <c r="C216" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>124</v>
+      </c>
+      <c r="B217" t="s">
+        <v>395</v>
+      </c>
+      <c r="C217" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>124</v>
+      </c>
+      <c r="B218" t="s">
+        <v>397</v>
+      </c>
+      <c r="C218" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>124</v>
+      </c>
+      <c r="B219" t="s">
+        <v>399</v>
+      </c>
+      <c r="C219" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>124</v>
+      </c>
+      <c r="B220" t="s">
+        <v>401</v>
+      </c>
+      <c r="C220" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>124</v>
+      </c>
+      <c r="B221" t="s">
+        <v>403</v>
+      </c>
+      <c r="C221" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>124</v>
+      </c>
+      <c r="B222" t="s">
+        <v>405</v>
+      </c>
+      <c r="C222" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>124</v>
+      </c>
+      <c r="B223" t="s">
+        <v>407</v>
+      </c>
+      <c r="C223" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>124</v>
+      </c>
+      <c r="B224" t="s">
+        <v>409</v>
+      </c>
+      <c r="C224" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>124</v>
+      </c>
+      <c r="B225" t="s">
+        <v>411</v>
+      </c>
+      <c r="C225" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>124</v>
+      </c>
+      <c r="B226" t="s">
+        <v>413</v>
+      </c>
+      <c r="C226" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>124</v>
+      </c>
+      <c r="B227" t="s">
+        <v>415</v>
+      </c>
+      <c r="C227" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>124</v>
+      </c>
+      <c r="B228" t="s">
+        <v>417</v>
+      </c>
+      <c r="C228" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>124</v>
+      </c>
+      <c r="B229" t="s">
+        <v>419</v>
+      </c>
+      <c r="C229" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>124</v>
+      </c>
+      <c r="B230" t="s">
+        <v>421</v>
+      </c>
+      <c r="C230" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>124</v>
+      </c>
+      <c r="B231" t="s">
+        <v>423</v>
+      </c>
+      <c r="C231" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>124</v>
+      </c>
+      <c r="B232" t="s">
+        <v>425</v>
+      </c>
+      <c r="C232" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>124</v>
+      </c>
+      <c r="B233" t="s">
+        <v>427</v>
+      </c>
+      <c r="C233" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>124</v>
+      </c>
+      <c r="B234" t="s">
+        <v>429</v>
+      </c>
+      <c r="C234" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>124</v>
+      </c>
+      <c r="B235" t="s">
+        <v>431</v>
+      </c>
+      <c r="C235" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>124</v>
+      </c>
+      <c r="B236" t="s">
+        <v>433</v>
+      </c>
+      <c r="C236" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>124</v>
+      </c>
+      <c r="B237" t="s">
+        <v>435</v>
+      </c>
+      <c r="C237" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>124</v>
+      </c>
+      <c r="B238" t="s">
+        <v>437</v>
+      </c>
+      <c r="C238" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>124</v>
+      </c>
+      <c r="B239" t="s">
+        <v>439</v>
+      </c>
+      <c r="C239" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>124</v>
+      </c>
+      <c r="B240" t="s">
+        <v>441</v>
+      </c>
+      <c r="C240" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>124</v>
+      </c>
+      <c r="B241" t="s">
+        <v>443</v>
+      </c>
+      <c r="C241" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>445</v>
+      </c>
+      <c r="C242" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>447</v>
+      </c>
+      <c r="C243" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>449</v>
+      </c>
+      <c r="C244" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>451</v>
+      </c>
+      <c r="C245" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>124</v>
+      </c>
+      <c r="B246" t="s">
+        <v>453</v>
+      </c>
+      <c r="C246" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>124</v>
+      </c>
+      <c r="B247" t="s">
+        <v>455</v>
+      </c>
+      <c r="C247" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>124</v>
+      </c>
+      <c r="B248" t="s">
+        <v>457</v>
+      </c>
+      <c r="C248" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>124</v>
+      </c>
+      <c r="B249" t="s">
+        <v>459</v>
+      </c>
+      <c r="C249" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>124</v>
+      </c>
+      <c r="B250" t="s">
+        <v>461</v>
+      </c>
+      <c r="C250" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>124</v>
+      </c>
+      <c r="B251" t="s">
+        <v>463</v>
+      </c>
+      <c r="C251" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>124</v>
+      </c>
+      <c r="B252" t="s">
+        <v>465</v>
+      </c>
+      <c r="C252" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>124</v>
+      </c>
+      <c r="B253" t="s">
+        <v>467</v>
+      </c>
+      <c r="C253" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>124</v>
+      </c>
+      <c r="B254" t="s">
+        <v>469</v>
+      </c>
+      <c r="C254" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>124</v>
+      </c>
+      <c r="B255" t="s">
+        <v>471</v>
+      </c>
+      <c r="C255" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>85</v>
+      </c>
+      <c r="B256" t="s">
+        <v>473</v>
+      </c>
+      <c r="C256" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>85</v>
+      </c>
+      <c r="B257" t="s">
+        <v>474</v>
+      </c>
+      <c r="C257" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>85</v>
+      </c>
+      <c r="B258" t="s">
+        <v>475</v>
+      </c>
+      <c r="C258" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>85</v>
+      </c>
+      <c r="B259" t="s">
+        <v>476</v>
+      </c>
+      <c r="C259" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>85</v>
+      </c>
+      <c r="B260" t="s">
+        <v>477</v>
+      </c>
+      <c r="C260" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>85</v>
+      </c>
+      <c r="B261" t="s">
+        <v>478</v>
+      </c>
+      <c r="C261" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>85</v>
+      </c>
+      <c r="B262" t="s">
+        <v>479</v>
+      </c>
+      <c r="C262" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>85</v>
+      </c>
+      <c r="B263" t="s">
+        <v>480</v>
+      </c>
+      <c r="C263" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>124</v>
+      </c>
+      <c r="B264" t="s">
+        <v>481</v>
+      </c>
+      <c r="C264" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>124</v>
+      </c>
+      <c r="B265" t="s">
+        <v>483</v>
+      </c>
+      <c r="C265" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>124</v>
+      </c>
+      <c r="B266" t="s">
+        <v>485</v>
+      </c>
+      <c r="C266" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>124</v>
+      </c>
+      <c r="B267" t="s">
+        <v>487</v>
+      </c>
+      <c r="C267" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>124</v>
+      </c>
+      <c r="B268" t="s">
+        <v>489</v>
+      </c>
+      <c r="C268" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>124</v>
+      </c>
+      <c r="B269" t="s">
+        <v>491</v>
+      </c>
+      <c r="C269" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>124</v>
+      </c>
+      <c r="B270" t="s">
+        <v>493</v>
+      </c>
+      <c r="C270" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>124</v>
+      </c>
+      <c r="B271" t="s">
+        <v>495</v>
+      </c>
+      <c r="C271" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>124</v>
+      </c>
+      <c r="B272" t="s">
+        <v>497</v>
+      </c>
+      <c r="C272" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>124</v>
+      </c>
+      <c r="B273" t="s">
+        <v>499</v>
+      </c>
+      <c r="C273" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>124</v>
+      </c>
+      <c r="B274" t="s">
+        <v>501</v>
+      </c>
+      <c r="C274" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>124</v>
+      </c>
+      <c r="B275" t="s">
+        <v>503</v>
+      </c>
+      <c r="C275" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>124</v>
+      </c>
+      <c r="B276" t="s">
+        <v>505</v>
+      </c>
+      <c r="C276" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>124</v>
+      </c>
+      <c r="B277" t="s">
+        <v>507</v>
+      </c>
+      <c r="C277" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>124</v>
+      </c>
+      <c r="B278" t="s">
+        <v>509</v>
+      </c>
+      <c r="C278" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>124</v>
+      </c>
+      <c r="B279" t="s">
+        <v>511</v>
+      </c>
+      <c r="C279" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>124</v>
+      </c>
+      <c r="B280" t="s">
+        <v>513</v>
+      </c>
+      <c r="C280" t="s">
+        <v>514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Prod.xlsx
+++ b/TestData/Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish.Dubey\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diksha Latest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13721A6E-852E-4006-A648-B827B41F28E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C9F113-8FDA-4953-A029-B2A5C7AE96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DAA223E6-CB5D-4CA6-8B40-3130C88B8FCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAA223E6-CB5D-4CA6-8B40-3130C88B8FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="605">
   <si>
     <t>Role</t>
   </si>
@@ -1582,6 +1582,276 @@
   </si>
   <si>
     <t>do_3138267876521328641199</t>
+  </si>
+  <si>
+    <t>Ash3@yopmail.com</t>
+  </si>
+  <si>
+    <t>Ash12@yopmail.com</t>
+  </si>
+  <si>
+    <t>Epub_ContentjiHLLt</t>
+  </si>
+  <si>
+    <t>H5p_ContentWKDaAr</t>
+  </si>
+  <si>
+    <t>html_ContentqUOTMu</t>
+  </si>
+  <si>
+    <t>Mp4_ContentJjSoCL</t>
+  </si>
+  <si>
+    <t>Mp4_ContentcEHiCq</t>
+  </si>
+  <si>
+    <t>PDF_ContentUKVkoZ</t>
+  </si>
+  <si>
+    <t>Webm_ContentwNCfdF</t>
+  </si>
+  <si>
+    <t>YT_ContentadKSpc</t>
+  </si>
+  <si>
+    <t>CourseAssessment_apAPjy</t>
+  </si>
+  <si>
+    <t>Course_hJsTLt</t>
+  </si>
+  <si>
+    <t>do_3138268421882593281354</t>
+  </si>
+  <si>
+    <t>Course_SFuvWg</t>
+  </si>
+  <si>
+    <t>do_3138268430992097281398</t>
+  </si>
+  <si>
+    <t>Course_EzZJHp</t>
+  </si>
+  <si>
+    <t>do_3138268441970114561403</t>
+  </si>
+  <si>
+    <t>Course_JceBTL</t>
+  </si>
+  <si>
+    <t>do_3138268448096583681404</t>
+  </si>
+  <si>
+    <t>Course_aybzib</t>
+  </si>
+  <si>
+    <t>do_3138268459122606081409</t>
+  </si>
+  <si>
+    <t>Course_qbeErY</t>
+  </si>
+  <si>
+    <t>do_3138268471012802561370</t>
+  </si>
+  <si>
+    <t>Course_ysWEzv</t>
+  </si>
+  <si>
+    <t>do_3138268479819530241374</t>
+  </si>
+  <si>
+    <t>Course_pUlJOZ</t>
+  </si>
+  <si>
+    <t>do_3138268484504371201419</t>
+  </si>
+  <si>
+    <t>Course_OBuGKY</t>
+  </si>
+  <si>
+    <t>do_3138268493931151361382</t>
+  </si>
+  <si>
+    <t>Course_fmBmgL</t>
+  </si>
+  <si>
+    <t>do_3138268504617943041387</t>
+  </si>
+  <si>
+    <t>eTextbook_shprnR</t>
+  </si>
+  <si>
+    <t>eTextbook_gjTrzn</t>
+  </si>
+  <si>
+    <t>eTextbook_ErCrUK</t>
+  </si>
+  <si>
+    <t>eTextbook_jdeQaY</t>
+  </si>
+  <si>
+    <t>eTextbook_xwMSwM</t>
+  </si>
+  <si>
+    <t>eTextbook_MckJRn</t>
+  </si>
+  <si>
+    <t>eTextbook_aeNjly</t>
+  </si>
+  <si>
+    <t>Collections_spZNIW</t>
+  </si>
+  <si>
+    <t>QuestionSet_aOukPD</t>
+  </si>
+  <si>
+    <t>do_3138268577695334401212</t>
+  </si>
+  <si>
+    <t>Resource_LjXbpu</t>
+  </si>
+  <si>
+    <t>TvLesson</t>
+  </si>
+  <si>
+    <t>Tv_Lesson_bVKqst</t>
+  </si>
+  <si>
+    <t>do_3138268600846172161425</t>
+  </si>
+  <si>
+    <t>Course_NxMcpP</t>
+  </si>
+  <si>
+    <t>do_3138268618217881601427</t>
+  </si>
+  <si>
+    <t>Course_wLrRMV</t>
+  </si>
+  <si>
+    <t>do_3138268631065149441456</t>
+  </si>
+  <si>
+    <t>Course_WQniRB</t>
+  </si>
+  <si>
+    <t>do_3138268637734912001432</t>
+  </si>
+  <si>
+    <t>Course_QLBjtY</t>
+  </si>
+  <si>
+    <t>do_3138268650286039041459</t>
+  </si>
+  <si>
+    <t>ETextBook</t>
+  </si>
+  <si>
+    <t>eTextbook_dKEkkl</t>
+  </si>
+  <si>
+    <t>do_3138268661933015041433</t>
+  </si>
+  <si>
+    <t>eTextbook_BNIiVr</t>
+  </si>
+  <si>
+    <t>eTextbook_zZooGR</t>
+  </si>
+  <si>
+    <t>eTextbook_mjoXmW</t>
+  </si>
+  <si>
+    <t>eTextbook_maFfQs</t>
+  </si>
+  <si>
+    <t>LessonPlan</t>
+  </si>
+  <si>
+    <t>LessonPlan_oCmGWT</t>
+  </si>
+  <si>
+    <t>Course_cbCTYZ</t>
+  </si>
+  <si>
+    <t>do_3138269433925877761554</t>
+  </si>
+  <si>
+    <t>Course_fDKGgc</t>
+  </si>
+  <si>
+    <t>do_3138269440927416321557</t>
+  </si>
+  <si>
+    <t>Collections_MsFYzW</t>
+  </si>
+  <si>
+    <t>eTextbook_Chhhzc</t>
+  </si>
+  <si>
+    <t>do_3138269466985676801519</t>
+  </si>
+  <si>
+    <t>Course_zTajAZ</t>
+  </si>
+  <si>
+    <t>do_3138269480075919361572</t>
+  </si>
+  <si>
+    <t>Resource_tNEDVa</t>
+  </si>
+  <si>
+    <t>TvLessonResource</t>
+  </si>
+  <si>
+    <t>TvLessonResource_jLzmRC</t>
+  </si>
+  <si>
+    <t>Course_RZHpEP</t>
+  </si>
+  <si>
+    <t>do_3138269687424450561635</t>
+  </si>
+  <si>
+    <t>Resource_nEPNbn</t>
+  </si>
+  <si>
+    <t>eTextbook_ciGBZL</t>
+  </si>
+  <si>
+    <t>eTextbook_wQVGKc</t>
+  </si>
+  <si>
+    <t>PDF_ContentFpYxtQ</t>
+  </si>
+  <si>
+    <t>PDF_ContentRgQbYG</t>
+  </si>
+  <si>
+    <t>PDF_ContentWXJvdk</t>
+  </si>
+  <si>
+    <t>PDF_ContentbjkrUL</t>
+  </si>
+  <si>
+    <t>Mp4_ContenteYGDda</t>
+  </si>
+  <si>
+    <t>PDF_ContentStkDje</t>
+  </si>
+  <si>
+    <t>Webm_ContentUGKWmU</t>
+  </si>
+  <si>
+    <t>Course_JCIKEn</t>
+  </si>
+  <si>
+    <t>do_3138274642680545281789</t>
+  </si>
+  <si>
+    <t>Course_plkXQN</t>
+  </si>
+  <si>
+    <t>do_3138275404711608321725</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +2100,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1841,19 +2111,14 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2190,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45085148-5C97-4C1E-BE40-BBF209D55C88}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2218,223 +2483,223 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2442,169 +2707,169 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>22</v>
       </c>
     </row>
@@ -2612,16 +2877,16 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <v>23</v>
       </c>
     </row>
@@ -2629,16 +2894,16 @@
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <v>24</v>
       </c>
     </row>
@@ -2646,16 +2911,16 @@
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="6">
         <v>25</v>
       </c>
     </row>
@@ -2663,16 +2928,16 @@
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <v>26</v>
       </c>
     </row>
@@ -2680,16 +2945,16 @@
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="6">
         <v>27</v>
       </c>
     </row>
@@ -2697,16 +2962,16 @@
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="6">
         <v>28</v>
       </c>
     </row>
@@ -2714,33 +2979,33 @@
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2748,16 +3013,16 @@
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>31</v>
       </c>
     </row>
@@ -2765,16 +3030,16 @@
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="6">
         <v>32</v>
       </c>
     </row>
@@ -2782,16 +3047,16 @@
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="6">
         <v>33</v>
       </c>
     </row>
@@ -2799,16 +3064,16 @@
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="6">
         <v>34</v>
       </c>
     </row>
@@ -2816,16 +3081,16 @@
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="6">
         <v>35</v>
       </c>
     </row>
@@ -2835,8 +3100,8 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="12">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
         <v>36</v>
       </c>
     </row>
@@ -2844,16 +3109,16 @@
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="6">
         <v>37</v>
       </c>
     </row>
@@ -2933,16 +3198,16 @@
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="6">
         <v>38</v>
       </c>
     </row>
@@ -2950,10 +3215,10 @@
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="5"/>
@@ -2986,7 +3251,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -2995,7 +3260,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -3004,7 +3269,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -3013,7 +3278,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -3035,9 +3300,15 @@
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -3062,8 +3333,8 @@
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>14</v>
+      <c r="B61" s="7" t="s">
+        <v>516</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
@@ -3147,11 +3418,12 @@
     <hyperlink ref="B23" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="B24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="B25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B61" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B34" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B49" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C49" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C34" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B49" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C49" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C58" r:id="rId75" xr:uid="{5F508F97-1B2A-4271-8BB7-1E6D7F79BC60}"/>
+    <hyperlink ref="B61" r:id="rId76" xr:uid="{60CC9422-A183-4242-8F63-4FB1F44FBC85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3159,9 +3431,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CFC5A1-623B-467B-838A-314188F17265}">
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3173,23 +3445,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -3200,7 +3472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -3211,7 +3483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -3222,7 +3494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3233,7 +3505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -3244,7 +3516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -3255,7 +3527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3266,7 +3538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -3277,7 +3549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -3288,7 +3560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -3299,7 +3571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -3310,7 +3582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -3321,7 +3593,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -3332,7 +3604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -3343,7 +3615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -3354,7 +3626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -3365,7 +3637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -3376,7 +3648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -3387,7 +3659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -3398,7 +3670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -3409,7 +3681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3420,7 +3692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -3431,7 +3703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -3442,7 +3714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -3453,7 +3725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3464,7 +3736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -3475,7 +3747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -3486,7 +3758,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -3497,7 +3769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -3508,7 +3780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -3519,7 +3791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -3530,7 +3802,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -3541,7 +3813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -3552,7 +3824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3563,7 +3835,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -3574,7 +3846,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -3585,7 +3857,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -3596,7 +3868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -3607,7 +3879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -3618,7 +3890,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3629,7 +3901,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -3640,7 +3912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -3651,7 +3923,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3662,7 +3934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -3673,7 +3945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -3684,7 +3956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -3695,7 +3967,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -3706,7 +3978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -3717,7 +3989,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3728,7 +4000,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -3739,7 +4011,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3750,7 +4022,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -3761,7 +4033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3772,7 +4044,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -3783,7 +4055,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -3794,7 +4066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -3805,7 +4077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -3816,7 +4088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -3827,7 +4099,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -3838,7 +4110,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -3849,7 +4121,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -3860,7 +4132,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -3871,7 +4143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3882,7 +4154,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -3893,7 +4165,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -3904,7 +4176,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -3915,7 +4187,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -3926,7 +4198,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -3937,7 +4209,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -3948,7 +4220,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -3959,7 +4231,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -3970,7 +4242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -3981,7 +4253,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -3992,7 +4264,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -4003,7 +4275,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -4014,7 +4286,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -4025,7 +4297,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -4036,7 +4308,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -4047,7 +4319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>124</v>
       </c>
@@ -4058,7 +4330,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -4069,7 +4341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -4080,7 +4352,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>124</v>
       </c>
@@ -4091,7 +4363,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -4102,7 +4374,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -4113,7 +4385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -4124,7 +4396,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -4135,7 +4407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -4146,7 +4418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -4157,7 +4429,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -4168,7 +4440,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -4179,7 +4451,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -4190,7 +4462,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -4201,7 +4473,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -4212,7 +4484,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -4223,7 +4495,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -4234,7 +4506,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -4245,7 +4517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -4256,7 +4528,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
@@ -4267,7 +4539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -4278,7 +4550,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>124</v>
       </c>
@@ -4289,7 +4561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -4300,7 +4572,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -4311,7 +4583,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -4322,7 +4594,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -4333,7 +4605,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -4344,7 +4616,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -4355,7 +4627,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -4366,7 +4638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -4377,7 +4649,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -4388,7 +4660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -4399,7 +4671,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -4410,7 +4682,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -4421,7 +4693,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>278</v>
       </c>
@@ -4432,7 +4704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>278</v>
       </c>
@@ -4443,7 +4715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>278</v>
       </c>
@@ -4454,7 +4726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>278</v>
       </c>
@@ -4465,7 +4737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>278</v>
       </c>
@@ -4476,7 +4748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -4487,7 +4759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -4498,7 +4770,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>278</v>
       </c>
@@ -4509,7 +4781,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>278</v>
       </c>
@@ -4520,7 +4792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>278</v>
       </c>
@@ -4531,7 +4803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -4542,7 +4814,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>278</v>
       </c>
@@ -4553,7 +4825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -4564,7 +4836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -4575,7 +4847,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>278</v>
       </c>
@@ -4586,7 +4858,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>278</v>
       </c>
@@ -4597,7 +4869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>278</v>
       </c>
@@ -4608,7 +4880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -4619,7 +4891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>278</v>
       </c>
@@ -4630,7 +4902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -4641,7 +4913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>278</v>
       </c>
@@ -4652,7 +4924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -4663,7 +4935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -4674,7 +4946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -4685,7 +4957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -4696,7 +4968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -4707,7 +4979,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -4718,7 +4990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -4729,7 +5001,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>278</v>
       </c>
@@ -4740,7 +5012,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>278</v>
       </c>
@@ -4751,7 +5023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>278</v>
       </c>
@@ -4762,7 +5034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>278</v>
       </c>
@@ -4773,7 +5045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>278</v>
       </c>
@@ -4784,7 +5056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>85</v>
       </c>
@@ -4795,7 +5067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>85</v>
       </c>
@@ -4806,7 +5078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>278</v>
       </c>
@@ -4817,7 +5089,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>278</v>
       </c>
@@ -4828,7 +5100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>278</v>
       </c>
@@ -4839,7 +5111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>278</v>
       </c>
@@ -4850,7 +5122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>278</v>
       </c>
@@ -4861,7 +5133,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>278</v>
       </c>
@@ -4872,7 +5144,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>278</v>
       </c>
@@ -4883,7 +5155,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>278</v>
       </c>
@@ -4894,7 +5166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>278</v>
       </c>
@@ -4905,7 +5177,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>278</v>
       </c>
@@ -4916,7 +5188,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>278</v>
       </c>
@@ -4927,7 +5199,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>278</v>
       </c>
@@ -4938,7 +5210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>278</v>
       </c>
@@ -4949,7 +5221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>278</v>
       </c>
@@ -4960,7 +5232,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>85</v>
       </c>
@@ -4971,7 +5243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>85</v>
       </c>
@@ -4982,7 +5254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>278</v>
       </c>
@@ -4993,7 +5265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>278</v>
       </c>
@@ -5004,7 +5276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>278</v>
       </c>
@@ -5015,7 +5287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>278</v>
       </c>
@@ -5026,7 +5298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>278</v>
       </c>
@@ -5037,7 +5309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>278</v>
       </c>
@@ -5048,7 +5320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>278</v>
       </c>
@@ -5059,7 +5331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>278</v>
       </c>
@@ -5070,7 +5342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>278</v>
       </c>
@@ -5081,7 +5353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>96</v>
       </c>
@@ -5092,7 +5364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>100</v>
       </c>
@@ -5103,7 +5375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>102</v>
       </c>
@@ -5114,7 +5386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>104</v>
       </c>
@@ -5125,7 +5397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>98</v>
       </c>
@@ -5136,7 +5408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>344</v>
       </c>
@@ -5147,7 +5419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>278</v>
       </c>
@@ -5158,7 +5430,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>347</v>
       </c>
@@ -5169,7 +5441,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>347</v>
       </c>
@@ -5180,7 +5452,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>347</v>
       </c>
@@ -5191,7 +5463,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>347</v>
       </c>
@@ -5202,7 +5474,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>347</v>
       </c>
@@ -5213,7 +5485,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>347</v>
       </c>
@@ -5224,7 +5496,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -5235,7 +5507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>102</v>
       </c>
@@ -5246,7 +5518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -5257,7 +5529,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>98</v>
       </c>
@@ -5268,7 +5540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>98</v>
       </c>
@@ -5279,7 +5551,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>96</v>
       </c>
@@ -5290,7 +5562,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>344</v>
       </c>
@@ -5301,7 +5573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>107</v>
       </c>
@@ -5312,7 +5584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -5323,7 +5595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -5334,7 +5606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>102</v>
       </c>
@@ -5345,7 +5617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -5356,7 +5628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>98</v>
       </c>
@@ -5367,7 +5639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>98</v>
       </c>
@@ -5378,7 +5650,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>96</v>
       </c>
@@ -5389,7 +5661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>344</v>
       </c>
@@ -5400,7 +5672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>107</v>
       </c>
@@ -5411,7 +5683,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>278</v>
       </c>
@@ -5422,7 +5694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>278</v>
       </c>
@@ -5433,7 +5705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>278</v>
       </c>
@@ -5444,7 +5716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>278</v>
       </c>
@@ -5455,7 +5727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>278</v>
       </c>
@@ -5466,7 +5738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>278</v>
       </c>
@@ -5477,7 +5749,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>278</v>
       </c>
@@ -5488,7 +5760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>278</v>
       </c>
@@ -5499,7 +5771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>124</v>
       </c>
@@ -5510,7 +5782,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>124</v>
       </c>
@@ -5521,7 +5793,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>124</v>
       </c>
@@ -5532,7 +5804,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>124</v>
       </c>
@@ -5543,7 +5815,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>124</v>
       </c>
@@ -5554,7 +5826,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>124</v>
       </c>
@@ -5565,7 +5837,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>124</v>
       </c>
@@ -5576,7 +5848,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>124</v>
       </c>
@@ -5587,7 +5859,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>124</v>
       </c>
@@ -5598,7 +5870,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>124</v>
       </c>
@@ -5609,7 +5881,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>124</v>
       </c>
@@ -5620,7 +5892,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>124</v>
       </c>
@@ -5631,7 +5903,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>124</v>
       </c>
@@ -5642,7 +5914,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>124</v>
       </c>
@@ -5653,7 +5925,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>124</v>
       </c>
@@ -5664,7 +5936,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>124</v>
       </c>
@@ -5675,7 +5947,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>124</v>
       </c>
@@ -5686,7 +5958,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>124</v>
       </c>
@@ -5697,7 +5969,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>124</v>
       </c>
@@ -5708,7 +5980,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>124</v>
       </c>
@@ -5719,7 +5991,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>124</v>
       </c>
@@ -5730,7 +6002,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -5741,7 +6013,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>124</v>
       </c>
@@ -5752,7 +6024,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>124</v>
       </c>
@@ -5763,7 +6035,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>124</v>
       </c>
@@ -5774,7 +6046,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>124</v>
       </c>
@@ -5785,7 +6057,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>124</v>
       </c>
@@ -5796,7 +6068,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>124</v>
       </c>
@@ -5807,7 +6079,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>124</v>
       </c>
@@ -5818,7 +6090,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>124</v>
       </c>
@@ -5829,7 +6101,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>124</v>
       </c>
@@ -5840,7 +6112,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>124</v>
       </c>
@@ -5851,7 +6123,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>124</v>
       </c>
@@ -5862,7 +6134,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>124</v>
       </c>
@@ -5873,7 +6145,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>124</v>
       </c>
@@ -5884,7 +6156,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>124</v>
       </c>
@@ -5895,7 +6167,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>124</v>
       </c>
@@ -5906,7 +6178,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>124</v>
       </c>
@@ -5917,7 +6189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>124</v>
       </c>
@@ -5928,7 +6200,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>124</v>
       </c>
@@ -5939,7 +6211,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>124</v>
       </c>
@@ -5950,7 +6222,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>124</v>
       </c>
@@ -5961,7 +6233,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>124</v>
       </c>
@@ -5972,7 +6244,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>124</v>
       </c>
@@ -5983,7 +6255,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>85</v>
       </c>
@@ -5994,7 +6266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>85</v>
       </c>
@@ -6005,7 +6277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>85</v>
       </c>
@@ -6016,7 +6288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>85</v>
       </c>
@@ -6027,7 +6299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>85</v>
       </c>
@@ -6038,7 +6310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>85</v>
       </c>
@@ -6049,7 +6321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>85</v>
       </c>
@@ -6060,7 +6332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>85</v>
       </c>
@@ -6071,7 +6343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>124</v>
       </c>
@@ -6082,7 +6354,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>124</v>
       </c>
@@ -6093,7 +6365,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>124</v>
       </c>
@@ -6104,7 +6376,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>124</v>
       </c>
@@ -6115,7 +6387,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>124</v>
       </c>
@@ -6126,7 +6398,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>124</v>
       </c>
@@ -6137,7 +6409,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>124</v>
       </c>
@@ -6148,7 +6420,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>124</v>
       </c>
@@ -6159,7 +6431,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>124</v>
       </c>
@@ -6170,7 +6442,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>124</v>
       </c>
@@ -6181,7 +6453,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>124</v>
       </c>
@@ -6192,7 +6464,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>124</v>
       </c>
@@ -6203,7 +6475,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>124</v>
       </c>
@@ -6214,7 +6486,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>124</v>
       </c>
@@ -6225,7 +6497,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>124</v>
       </c>
@@ -6236,7 +6508,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>124</v>
       </c>
@@ -6247,7 +6519,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>124</v>
       </c>
@@ -6256,6 +6528,666 @@
       </c>
       <c r="C280" t="s">
         <v>514</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>100</v>
+      </c>
+      <c r="B281" t="s">
+        <v>517</v>
+      </c>
+      <c r="C281" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>102</v>
+      </c>
+      <c r="B282" t="s">
+        <v>518</v>
+      </c>
+      <c r="C282" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>104</v>
+      </c>
+      <c r="B283" t="s">
+        <v>519</v>
+      </c>
+      <c r="C283" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>98</v>
+      </c>
+      <c r="B284" t="s">
+        <v>520</v>
+      </c>
+      <c r="C284" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>98</v>
+      </c>
+      <c r="B285" t="s">
+        <v>521</v>
+      </c>
+      <c r="C285" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>96</v>
+      </c>
+      <c r="B286" t="s">
+        <v>522</v>
+      </c>
+      <c r="C286" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>344</v>
+      </c>
+      <c r="B287" t="s">
+        <v>523</v>
+      </c>
+      <c r="C287" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>107</v>
+      </c>
+      <c r="B288" t="s">
+        <v>524</v>
+      </c>
+      <c r="C288" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>85</v>
+      </c>
+      <c r="B289" t="s">
+        <v>525</v>
+      </c>
+      <c r="C289" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>124</v>
+      </c>
+      <c r="B290" t="s">
+        <v>526</v>
+      </c>
+      <c r="C290" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>124</v>
+      </c>
+      <c r="B291" t="s">
+        <v>528</v>
+      </c>
+      <c r="C291" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>124</v>
+      </c>
+      <c r="B292" t="s">
+        <v>530</v>
+      </c>
+      <c r="C292" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>124</v>
+      </c>
+      <c r="B293" t="s">
+        <v>532</v>
+      </c>
+      <c r="C293" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>124</v>
+      </c>
+      <c r="B294" t="s">
+        <v>534</v>
+      </c>
+      <c r="C294" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>124</v>
+      </c>
+      <c r="B295" t="s">
+        <v>536</v>
+      </c>
+      <c r="C295" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>124</v>
+      </c>
+      <c r="B296" t="s">
+        <v>538</v>
+      </c>
+      <c r="C296" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>124</v>
+      </c>
+      <c r="B297" t="s">
+        <v>540</v>
+      </c>
+      <c r="C297" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>124</v>
+      </c>
+      <c r="B298" t="s">
+        <v>542</v>
+      </c>
+      <c r="C298" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>124</v>
+      </c>
+      <c r="B299" t="s">
+        <v>544</v>
+      </c>
+      <c r="C299" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>278</v>
+      </c>
+      <c r="B300" t="s">
+        <v>546</v>
+      </c>
+      <c r="C300" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>278</v>
+      </c>
+      <c r="B301" t="s">
+        <v>547</v>
+      </c>
+      <c r="C301" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>278</v>
+      </c>
+      <c r="B302" t="s">
+        <v>548</v>
+      </c>
+      <c r="C302" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>278</v>
+      </c>
+      <c r="B303" t="s">
+        <v>549</v>
+      </c>
+      <c r="C303" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>85</v>
+      </c>
+      <c r="B304" t="s">
+        <v>550</v>
+      </c>
+      <c r="C304" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>85</v>
+      </c>
+      <c r="B305" t="s">
+        <v>551</v>
+      </c>
+      <c r="C305" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>278</v>
+      </c>
+      <c r="B306" t="s">
+        <v>552</v>
+      </c>
+      <c r="C306" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>278</v>
+      </c>
+      <c r="B307" t="s">
+        <v>553</v>
+      </c>
+      <c r="C307" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>347</v>
+      </c>
+      <c r="B308" t="s">
+        <v>554</v>
+      </c>
+      <c r="C308" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>117</v>
+      </c>
+      <c r="B309" t="s">
+        <v>556</v>
+      </c>
+      <c r="C309" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>557</v>
+      </c>
+      <c r="B310" t="s">
+        <v>558</v>
+      </c>
+      <c r="C310" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>124</v>
+      </c>
+      <c r="B311" t="s">
+        <v>560</v>
+      </c>
+      <c r="C311" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>124</v>
+      </c>
+      <c r="B312" t="s">
+        <v>562</v>
+      </c>
+      <c r="C312" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>124</v>
+      </c>
+      <c r="B313" t="s">
+        <v>564</v>
+      </c>
+      <c r="C313" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>124</v>
+      </c>
+      <c r="B314" t="s">
+        <v>566</v>
+      </c>
+      <c r="C314" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>568</v>
+      </c>
+      <c r="B315" t="s">
+        <v>569</v>
+      </c>
+      <c r="C315" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>278</v>
+      </c>
+      <c r="B316" t="s">
+        <v>571</v>
+      </c>
+      <c r="C316" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>278</v>
+      </c>
+      <c r="B317" t="s">
+        <v>572</v>
+      </c>
+      <c r="C317" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>278</v>
+      </c>
+      <c r="B318" t="s">
+        <v>573</v>
+      </c>
+      <c r="C318" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>278</v>
+      </c>
+      <c r="B319" t="s">
+        <v>574</v>
+      </c>
+      <c r="C319" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>575</v>
+      </c>
+      <c r="B320" t="s">
+        <v>576</v>
+      </c>
+      <c r="C320" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>124</v>
+      </c>
+      <c r="B321" t="s">
+        <v>577</v>
+      </c>
+      <c r="C321" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>124</v>
+      </c>
+      <c r="B322" t="s">
+        <v>579</v>
+      </c>
+      <c r="C322" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>278</v>
+      </c>
+      <c r="B323" t="s">
+        <v>581</v>
+      </c>
+      <c r="C323" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>568</v>
+      </c>
+      <c r="B324" t="s">
+        <v>582</v>
+      </c>
+      <c r="C324" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>124</v>
+      </c>
+      <c r="B325" t="s">
+        <v>584</v>
+      </c>
+      <c r="C325" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>117</v>
+      </c>
+      <c r="B326" t="s">
+        <v>586</v>
+      </c>
+      <c r="C326" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>587</v>
+      </c>
+      <c r="B327" t="s">
+        <v>588</v>
+      </c>
+      <c r="C327" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>124</v>
+      </c>
+      <c r="B328" t="s">
+        <v>589</v>
+      </c>
+      <c r="C328" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>117</v>
+      </c>
+      <c r="B329" t="s">
+        <v>591</v>
+      </c>
+      <c r="C329" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>278</v>
+      </c>
+      <c r="B330" t="s">
+        <v>592</v>
+      </c>
+      <c r="C330" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>278</v>
+      </c>
+      <c r="B331" t="s">
+        <v>593</v>
+      </c>
+      <c r="C331" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>96</v>
+      </c>
+      <c r="B332" t="s">
+        <v>594</v>
+      </c>
+      <c r="C332" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>96</v>
+      </c>
+      <c r="B333" t="s">
+        <v>595</v>
+      </c>
+      <c r="C333" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>96</v>
+      </c>
+      <c r="B334" t="s">
+        <v>596</v>
+      </c>
+      <c r="C334" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>96</v>
+      </c>
+      <c r="B335" t="s">
+        <v>597</v>
+      </c>
+      <c r="C335" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>98</v>
+      </c>
+      <c r="B336" t="s">
+        <v>598</v>
+      </c>
+      <c r="C336" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>96</v>
+      </c>
+      <c r="B337" t="s">
+        <v>599</v>
+      </c>
+      <c r="C337" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338" t="s">
+        <v>600</v>
+      </c>
+      <c r="C338" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>124</v>
+      </c>
+      <c r="B339" t="s">
+        <v>601</v>
+      </c>
+      <c r="C339" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>124</v>
+      </c>
+      <c r="B340" t="s">
+        <v>603</v>
+      </c>
+      <c r="C340" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
